--- a/Code/Results/Cases/Case_1_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2706550419601825</v>
+        <v>0.1424634105014064</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06514106371523098</v>
+        <v>0.02175719664786158</v>
       </c>
       <c r="E2">
-        <v>1.421577180491369</v>
+        <v>0.4241215750028857</v>
       </c>
       <c r="F2">
-        <v>0.303388306695183</v>
+        <v>0.3861113732231232</v>
       </c>
       <c r="G2">
-        <v>0.2000293973934362</v>
+        <v>0.236492415999443</v>
       </c>
       <c r="H2">
-        <v>0.1674044113453874</v>
+        <v>0.4088094984408457</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.018695213537171</v>
+        <v>0.9741754283509181</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7258435044782345</v>
+        <v>1.205962810138502</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2366723846214143</v>
+        <v>0.1329242834005129</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05724108627608615</v>
+        <v>0.01912967109105068</v>
       </c>
       <c r="E3">
-        <v>1.221661442418267</v>
+        <v>0.3700076705874977</v>
       </c>
       <c r="F3">
-        <v>0.279404272720889</v>
+        <v>0.3853025164923878</v>
       </c>
       <c r="G3">
-        <v>0.1840817312583027</v>
+        <v>0.2367645389949615</v>
       </c>
       <c r="H3">
-        <v>0.166690089027604</v>
+        <v>0.4131297367877096</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.657116342612824</v>
+        <v>0.8558119575868375</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6901391831722066</v>
+        <v>1.215309554227503</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2159607483688433</v>
+        <v>0.1271362855327709</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05238130395297702</v>
+        <v>0.0175085037053222</v>
       </c>
       <c r="E4">
-        <v>1.10102439059564</v>
+        <v>0.336863706024829</v>
       </c>
       <c r="F4">
-        <v>0.2656509836559593</v>
+        <v>0.3851829900453012</v>
       </c>
       <c r="G4">
-        <v>0.1752063998594195</v>
+        <v>0.2372344590999091</v>
       </c>
       <c r="H4">
-        <v>0.1668118048887237</v>
+        <v>0.4160588099096785</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.435096112441983</v>
+        <v>0.7828053301500688</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.671323648348249</v>
+        <v>1.222259887099895</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2075554905407273</v>
+        <v>0.1247951600141448</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05039823068208449</v>
+        <v>0.01684593924354516</v>
       </c>
       <c r="E5">
-        <v>1.052314880163919</v>
+        <v>0.3233763456690184</v>
       </c>
       <c r="F5">
-        <v>0.260273862139826</v>
+        <v>0.3852288202414158</v>
       </c>
       <c r="G5">
-        <v>0.1718028038320867</v>
+        <v>0.237501705263746</v>
       </c>
       <c r="H5">
-        <v>0.1669947288804892</v>
+        <v>0.4173218430220516</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.344590925168575</v>
+        <v>0.7529732642226179</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6643848788116316</v>
+        <v>1.225395757641977</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2061618049749256</v>
+        <v>0.1244074815375029</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05006877132034049</v>
+        <v>0.01673580609328695</v>
       </c>
       <c r="E6">
-        <v>1.044251727250028</v>
+        <v>0.3211378853980591</v>
       </c>
       <c r="F6">
-        <v>0.2593942483112244</v>
+        <v>0.3852421316731736</v>
       </c>
       <c r="G6">
-        <v>0.1712500276018645</v>
+        <v>0.2375506446524938</v>
       </c>
       <c r="H6">
-        <v>0.1670329427414572</v>
+        <v>0.4175357581471957</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.329560017879118</v>
+        <v>0.7480148216396287</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6632752351562203</v>
+        <v>1.225934769339204</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2158472556656648</v>
+        <v>0.1271046410967926</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05235457081792561</v>
+        <v>0.0174995758599934</v>
       </c>
       <c r="E7">
-        <v>1.100365751893406</v>
+        <v>0.3366817356259304</v>
       </c>
       <c r="F7">
-        <v>0.2655775669890161</v>
+        <v>0.3851832257325682</v>
       </c>
       <c r="G7">
-        <v>0.1751596567786535</v>
+        <v>0.2372377570992015</v>
       </c>
       <c r="H7">
-        <v>0.1668137417236579</v>
+        <v>0.4160755627017565</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.433875684986162</v>
+        <v>0.7824033309388199</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6712271863765551</v>
+        <v>1.222300950884545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2589035400728363</v>
+        <v>0.1391600799395718</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06241881966867879</v>
+        <v>0.0208528854001031</v>
       </c>
       <c r="E8">
-        <v>1.352157626266845</v>
+        <v>0.4054450657766893</v>
       </c>
       <c r="F8">
-        <v>0.2949059835940204</v>
+        <v>0.3857540330290945</v>
       </c>
       <c r="G8">
-        <v>0.1943296522386362</v>
+        <v>0.2365231488721236</v>
       </c>
       <c r="H8">
-        <v>0.1670371208188541</v>
+        <v>0.4102416844846317</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.894007217700505</v>
+        <v>0.9334335299433576</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7128551389742768</v>
+        <v>1.208933502511442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3447422451708348</v>
+        <v>0.1633428904134462</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08210129430135993</v>
+        <v>0.02736450421971881</v>
       </c>
       <c r="E9">
-        <v>1.866669457697057</v>
+        <v>0.5410200769768494</v>
       </c>
       <c r="F9">
-        <v>0.360971346361211</v>
+        <v>0.3898794821020104</v>
       </c>
       <c r="G9">
-        <v>0.2400324328311783</v>
+        <v>0.2375430999699759</v>
       </c>
       <c r="H9">
-        <v>0.1722868051518915</v>
+        <v>0.4009993260771196</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.797666279223733</v>
+        <v>1.226905705761055</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8216836440563924</v>
+        <v>1.192380669631476</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4089428625811991</v>
+        <v>0.1814345697966928</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09656014183758543</v>
+        <v>0.03210738695673854</v>
       </c>
       <c r="E10">
-        <v>2.263545057194221</v>
+        <v>0.6411895872659841</v>
       </c>
       <c r="F10">
-        <v>0.4159728184663862</v>
+        <v>0.3947633310827214</v>
       </c>
       <c r="G10">
-        <v>0.2798145892362953</v>
+        <v>0.2397945820185043</v>
       </c>
       <c r="H10">
-        <v>0.1796265053200869</v>
+        <v>0.395555208566833</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.464630420084461</v>
+        <v>1.440800471857813</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9220430015335808</v>
+        <v>1.186177663878368</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4384622179472473</v>
+        <v>0.1897342840725003</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1031451175894915</v>
+        <v>0.03425569700944209</v>
       </c>
       <c r="E11">
-        <v>2.449781771675774</v>
+        <v>0.6869073979961939</v>
       </c>
       <c r="F11">
-        <v>0.4427027993665646</v>
+        <v>0.3973918773714331</v>
       </c>
       <c r="G11">
-        <v>0.2995685003974558</v>
+        <v>0.2411506355037147</v>
       </c>
       <c r="H11">
-        <v>0.1838563330247922</v>
+        <v>0.3933722529833403</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.769268676841136</v>
+        <v>1.537719158772234</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9730662120192051</v>
+        <v>1.184664478650319</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4496914272222909</v>
+        <v>0.1928870564502319</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.105640443309241</v>
+        <v>0.03506783243911116</v>
       </c>
       <c r="E12">
-        <v>2.521275994523478</v>
+        <v>0.7042430636519441</v>
       </c>
       <c r="F12">
-        <v>0.4530985767596292</v>
+        <v>0.3984460800137768</v>
       </c>
       <c r="G12">
-        <v>0.3073155400504817</v>
+        <v>0.2417123002063448</v>
       </c>
       <c r="H12">
-        <v>0.1855986083055541</v>
+        <v>0.3925879590608474</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.884855089105997</v>
+        <v>1.574363020112003</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9932459548497263</v>
+        <v>1.184280837573198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4472706585537196</v>
+        <v>0.1922076151761587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1051029419287488</v>
+        <v>0.03489298688430154</v>
       </c>
       <c r="E13">
-        <v>2.505832656508531</v>
+        <v>0.7005084529619836</v>
       </c>
       <c r="F13">
-        <v>0.4508470147350181</v>
+        <v>0.3982164170253881</v>
       </c>
       <c r="G13">
-        <v>0.305634734809658</v>
+        <v>0.241589186910673</v>
       </c>
       <c r="H13">
-        <v>0.1852169176398348</v>
+        <v>0.3927549855421546</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.859950573611229</v>
+        <v>1.566473682761739</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9888602478864357</v>
+        <v>1.184355020259375</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4393849981618985</v>
+        <v>0.1899934681305382</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1033503707518832</v>
+        <v>0.03432253989650746</v>
       </c>
       <c r="E14">
-        <v>2.455643259827227</v>
+        <v>0.6883331362822531</v>
       </c>
       <c r="F14">
-        <v>0.4435524116347551</v>
+        <v>0.3974774263825793</v>
       </c>
       <c r="G14">
-        <v>0.3002003372215682</v>
+        <v>0.2411958763578781</v>
       </c>
       <c r="H14">
-        <v>0.183996779293139</v>
+        <v>0.3933068792990611</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.778773200506407</v>
+        <v>1.540735028179881</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9747086851818381</v>
+        <v>1.184629114179387</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4345616042374019</v>
+        <v>0.1886385168023992</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.102277117043883</v>
+        <v>0.03397294298643772</v>
       </c>
       <c r="E15">
-        <v>2.425032002746789</v>
+        <v>0.6808784920449824</v>
       </c>
       <c r="F15">
-        <v>0.4391207738614895</v>
+        <v>0.3970324441610202</v>
       </c>
       <c r="G15">
-        <v>0.296907228747898</v>
+        <v>0.2409612467023123</v>
       </c>
       <c r="H15">
-        <v>0.1832680991262805</v>
+        <v>0.3936504482994252</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.72908076306669</v>
+        <v>1.524961856987034</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9661549290809432</v>
+        <v>1.184821701565227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4070205025830234</v>
+        <v>0.1808935519251946</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09613000464474197</v>
+        <v>0.03196679917454048</v>
       </c>
       <c r="E16">
-        <v>2.251501176596733</v>
+        <v>0.6382049902682212</v>
       </c>
       <c r="F16">
-        <v>0.4142626775241354</v>
+        <v>0.3945997641036527</v>
       </c>
       <c r="G16">
-        <v>0.2785593322423097</v>
+        <v>0.2397126757198436</v>
       </c>
       <c r="H16">
-        <v>0.1793690392745191</v>
+        <v>0.3957037884846102</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.444750495836274</v>
+        <v>1.434458722720763</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9188237483477906</v>
+        <v>1.186302988507236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3902093191420022</v>
+        <v>0.1761599990511229</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09236133226498566</v>
+        <v>0.03073368789259945</v>
       </c>
       <c r="E17">
-        <v>2.146606368272387</v>
+        <v>0.6120658707757229</v>
       </c>
       <c r="F17">
-        <v>0.3994699459526032</v>
+        <v>0.3932118303472762</v>
       </c>
       <c r="G17">
-        <v>0.2677472300359511</v>
+        <v>0.2390320226465406</v>
       </c>
       <c r="H17">
-        <v>0.1772137612477138</v>
+        <v>0.3970387328906853</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.270672317391984</v>
+        <v>1.378838390673252</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8912216659532248</v>
+        <v>1.187547722684116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3805691782309708</v>
+        <v>0.1734439573151576</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09019436190992991</v>
+        <v>0.03002356726354094</v>
       </c>
       <c r="E18">
-        <v>2.086799676912477</v>
+        <v>0.5970453739821835</v>
       </c>
       <c r="F18">
-        <v>0.3911206550425987</v>
+        <v>0.3924518037552147</v>
       </c>
       <c r="G18">
-        <v>0.2616824900577868</v>
+        <v>0.2386717374743057</v>
       </c>
       <c r="H18">
-        <v>0.1760571555470136</v>
+        <v>0.3978341852248874</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.170659966420544</v>
+        <v>1.346811107432359</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8758454358887491</v>
+        <v>1.188386760391381</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3773100416537147</v>
+        <v>0.1725254864420265</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08946075935011777</v>
+        <v>0.02978298521406231</v>
       </c>
       <c r="E19">
-        <v>2.066636196484467</v>
+        <v>0.5919620497830209</v>
       </c>
       <c r="F19">
-        <v>0.3883202449358194</v>
+        <v>0.3922010359199462</v>
       </c>
       <c r="G19">
-        <v>0.2596547165092815</v>
+        <v>0.2385550978377466</v>
       </c>
       <c r="H19">
-        <v>0.1756794536465449</v>
+        <v>0.3981082530021709</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.136815460396406</v>
+        <v>1.335961109833988</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8707226440578779</v>
+        <v>1.188691950193032</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3919958355473483</v>
+        <v>0.1766632148547131</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0927624399957665</v>
+        <v>0.03086504487392006</v>
       </c>
       <c r="E20">
-        <v>2.15771712151539</v>
+        <v>0.614846959838232</v>
       </c>
       <c r="F20">
-        <v>0.401027997628276</v>
+        <v>0.3933556144760004</v>
       </c>
       <c r="G20">
-        <v>0.2688820511598919</v>
+        <v>0.2391012461925328</v>
       </c>
       <c r="H20">
-        <v>0.1774345123512404</v>
+        <v>0.3968937655216038</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.28919122045653</v>
+        <v>1.384763004481158</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8941076325199049</v>
+        <v>1.187402469600983</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4416997797508628</v>
+        <v>0.1906435508353752</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1038650907183438</v>
+        <v>0.03449013195525197</v>
       </c>
       <c r="E21">
-        <v>2.470357462897866</v>
+        <v>0.691908675127479</v>
       </c>
       <c r="F21">
-        <v>0.4456873497601634</v>
+        <v>0.3976928866660785</v>
       </c>
       <c r="G21">
-        <v>0.3017890743745255</v>
+        <v>0.2413100907537427</v>
       </c>
       <c r="H21">
-        <v>0.1843512447258888</v>
+        <v>0.3931436245268998</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.802610397266733</v>
+        <v>1.548296661999984</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9788413179226154</v>
+        <v>1.184543457196781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4744836354599897</v>
+        <v>0.1998378450672789</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1111317955513869</v>
+        <v>0.03685125081102569</v>
       </c>
       <c r="E22">
-        <v>2.680427128758964</v>
+        <v>0.7424097161701013</v>
       </c>
       <c r="F22">
-        <v>0.4764850992033232</v>
+        <v>0.4008705960085024</v>
       </c>
       <c r="G22">
-        <v>0.3248652441200619</v>
+        <v>0.2430345953459323</v>
       </c>
       <c r="H22">
-        <v>0.1896974928377801</v>
+        <v>0.3909395617893665</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.139506476633073</v>
+        <v>1.65484135671386</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.039269044015015</v>
+        <v>1.18377927128904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4569568841210412</v>
+        <v>0.1949254886011857</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1072522278685142</v>
+        <v>0.03559183432398072</v>
       </c>
       <c r="E23">
-        <v>2.567728468851683</v>
+        <v>0.7154432731406075</v>
       </c>
       <c r="F23">
-        <v>0.4598905138260747</v>
+        <v>0.3991430968496346</v>
       </c>
       <c r="G23">
-        <v>0.3123953283379848</v>
+        <v>0.2420883480643568</v>
       </c>
       <c r="H23">
-        <v>0.1867641251027692</v>
+        <v>0.3920932815773028</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.959557813734705</v>
+        <v>1.598007681469653</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.006524898895123</v>
+        <v>1.184085689269722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3911880745585989</v>
+        <v>0.1764356943413503</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0925811002058694</v>
+        <v>0.03080566208124225</v>
       </c>
       <c r="E24">
-        <v>2.152692407726164</v>
+        <v>0.6135896071114644</v>
       </c>
       <c r="F24">
-        <v>0.4003231209806444</v>
+        <v>0.3932904915911024</v>
       </c>
       <c r="G24">
-        <v>0.2683685294359606</v>
+        <v>0.2390698535982239</v>
       </c>
       <c r="H24">
-        <v>0.1773344547560356</v>
+        <v>0.3969592181348744</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.280818617749674</v>
+        <v>1.382084643462463</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.892801359195289</v>
+        <v>1.187467754143768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3213424954229822</v>
+        <v>0.1567433744421862</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07677938460226841</v>
+        <v>0.0256100274784572</v>
       </c>
       <c r="E25">
-        <v>1.724658522102786</v>
+        <v>0.5042531803391768</v>
       </c>
       <c r="F25">
-        <v>0.3420603106028395</v>
+        <v>0.3884395160511573</v>
       </c>
       <c r="G25">
-        <v>0.2266765037566429</v>
+        <v>0.2370052668188265</v>
       </c>
       <c r="H25">
-        <v>0.1702974968215614</v>
+        <v>0.4032636759672812</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.552841493399455</v>
+        <v>1.147810306434053</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.788955300990537</v>
+        <v>1.195817278744627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424634105014064</v>
+        <v>0.2706550419601825</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02175719664786158</v>
+        <v>0.06514106371522388</v>
       </c>
       <c r="E2">
-        <v>0.4241215750028857</v>
+        <v>1.421577180491411</v>
       </c>
       <c r="F2">
-        <v>0.3861113732231232</v>
+        <v>0.3033883066951759</v>
       </c>
       <c r="G2">
-        <v>0.236492415999443</v>
+        <v>0.200029397393422</v>
       </c>
       <c r="H2">
-        <v>0.4088094984408457</v>
+        <v>0.1674044113452737</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9741754283509181</v>
+        <v>3.018695213537143</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.205962810138502</v>
+        <v>0.7258435044782203</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329242834005129</v>
+        <v>0.2366723846214143</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01912967109105068</v>
+        <v>0.05724108627595115</v>
       </c>
       <c r="E3">
-        <v>0.3700076705874977</v>
+        <v>1.221661442418281</v>
       </c>
       <c r="F3">
-        <v>0.3853025164923878</v>
+        <v>0.2794042727208819</v>
       </c>
       <c r="G3">
-        <v>0.2367645389949615</v>
+        <v>0.184081731258253</v>
       </c>
       <c r="H3">
-        <v>0.4131297367877096</v>
+        <v>0.166690089027604</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8558119575868375</v>
+        <v>2.657116342612966</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.215309554227503</v>
+        <v>0.6901391831722208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271362855327709</v>
+        <v>0.215960748368957</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0175085037053222</v>
+        <v>0.05238130395298413</v>
       </c>
       <c r="E4">
-        <v>0.336863706024829</v>
+        <v>1.101024390595668</v>
       </c>
       <c r="F4">
-        <v>0.3851829900453012</v>
+        <v>0.2656509836559735</v>
       </c>
       <c r="G4">
-        <v>0.2372344590999091</v>
+        <v>0.1752063998594124</v>
       </c>
       <c r="H4">
-        <v>0.4160588099096785</v>
+        <v>0.1668118048887237</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7828053301500688</v>
+        <v>2.435096112442068</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.222259887099895</v>
+        <v>0.6713236483483058</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247951600141448</v>
+        <v>0.2075554905405284</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01684593924354516</v>
+        <v>0.05039823068198501</v>
       </c>
       <c r="E5">
-        <v>0.3233763456690184</v>
+        <v>1.052314880163919</v>
       </c>
       <c r="F5">
-        <v>0.3852288202414158</v>
+        <v>0.2602738621397975</v>
       </c>
       <c r="G5">
-        <v>0.237501705263746</v>
+        <v>0.1718028038321506</v>
       </c>
       <c r="H5">
-        <v>0.4173218430220516</v>
+        <v>0.1669947288803826</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7529732642226179</v>
+        <v>2.344590925168518</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.225395757641977</v>
+        <v>0.6643848788115605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244074815375029</v>
+        <v>0.2061618049749683</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01673580609328695</v>
+        <v>0.05006877132046128</v>
       </c>
       <c r="E6">
-        <v>0.3211378853980591</v>
+        <v>1.044251727249986</v>
       </c>
       <c r="F6">
-        <v>0.3852421316731736</v>
+        <v>0.2593942483112102</v>
       </c>
       <c r="G6">
-        <v>0.2375506446524938</v>
+        <v>0.1712500276018218</v>
       </c>
       <c r="H6">
-        <v>0.4175357581471957</v>
+        <v>0.1670329427414501</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7480148216396287</v>
+        <v>2.329560017879089</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.225934769339204</v>
+        <v>0.6632752351562203</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271046410967926</v>
+        <v>0.2158472556655795</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0174995758599934</v>
+        <v>0.05235457081768402</v>
       </c>
       <c r="E7">
-        <v>0.3366817356259304</v>
+        <v>1.100365751893378</v>
       </c>
       <c r="F7">
-        <v>0.3851832257325682</v>
+        <v>0.2655775669890232</v>
       </c>
       <c r="G7">
-        <v>0.2372377570992015</v>
+        <v>0.1751596567786606</v>
       </c>
       <c r="H7">
-        <v>0.4160755627017565</v>
+        <v>0.1668137417237716</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7824033309388199</v>
+        <v>2.433875684986276</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.222300950884545</v>
+        <v>0.6712271863765551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391600799395718</v>
+        <v>0.2589035400728505</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0208528854001031</v>
+        <v>0.06241881966872143</v>
       </c>
       <c r="E8">
-        <v>0.4054450657766893</v>
+        <v>1.352157626266816</v>
       </c>
       <c r="F8">
-        <v>0.3857540330290945</v>
+        <v>0.2949059835940204</v>
       </c>
       <c r="G8">
-        <v>0.2365231488721236</v>
+        <v>0.1943296522387072</v>
       </c>
       <c r="H8">
-        <v>0.4102416844846317</v>
+        <v>0.1670371208187262</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9334335299433576</v>
+        <v>2.894007217700505</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.208933502511442</v>
+        <v>0.7128551389742483</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633428904134462</v>
+        <v>0.3447422451708206</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02736450421971881</v>
+        <v>0.08210129430136703</v>
       </c>
       <c r="E9">
-        <v>0.5410200769768494</v>
+        <v>1.866669457697071</v>
       </c>
       <c r="F9">
-        <v>0.3898794821020104</v>
+        <v>0.360971346361211</v>
       </c>
       <c r="G9">
-        <v>0.2375430999699759</v>
+        <v>0.2400324328311143</v>
       </c>
       <c r="H9">
-        <v>0.4009993260771196</v>
+        <v>0.1722868051520052</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226905705761055</v>
+        <v>3.797666279223677</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.192380669631476</v>
+        <v>0.8216836440564066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814345697966928</v>
+        <v>0.4089428625808438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03210738695673854</v>
+        <v>0.09656014183768491</v>
       </c>
       <c r="E10">
-        <v>0.6411895872659841</v>
+        <v>2.263545057194221</v>
       </c>
       <c r="F10">
-        <v>0.3947633310827214</v>
+        <v>0.4159728184663933</v>
       </c>
       <c r="G10">
-        <v>0.2397945820185043</v>
+        <v>0.2798145892363095</v>
       </c>
       <c r="H10">
-        <v>0.395555208566833</v>
+        <v>0.1796265053200869</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.440800471857813</v>
+        <v>4.464630420084518</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.186177663878368</v>
+        <v>0.9220430015336092</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1897342840725003</v>
+        <v>0.4384622179472615</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03425569700944209</v>
+        <v>0.1031451175894915</v>
       </c>
       <c r="E11">
-        <v>0.6869073979961939</v>
+        <v>2.449781771675774</v>
       </c>
       <c r="F11">
-        <v>0.3973918773714331</v>
+        <v>0.4427027993665646</v>
       </c>
       <c r="G11">
-        <v>0.2411506355037147</v>
+        <v>0.2995685003974415</v>
       </c>
       <c r="H11">
-        <v>0.3933722529833403</v>
+        <v>0.1838563330247922</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.537719158772234</v>
+        <v>4.769268676841079</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.184664478650319</v>
+        <v>0.9730662120192051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1928870564502319</v>
+        <v>0.4496914272221062</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03506783243911116</v>
+        <v>0.1056404433092553</v>
       </c>
       <c r="E12">
-        <v>0.7042430636519441</v>
+        <v>2.521275994523464</v>
       </c>
       <c r="F12">
-        <v>0.3984460800137768</v>
+        <v>0.4530985767596221</v>
       </c>
       <c r="G12">
-        <v>0.2417123002063448</v>
+        <v>0.3073155400504817</v>
       </c>
       <c r="H12">
-        <v>0.3925879590608474</v>
+        <v>0.1855986083055399</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.574363020112003</v>
+        <v>4.884855089106168</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.184280837573198</v>
+        <v>0.9932459548497548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1922076151761587</v>
+        <v>0.4472706585533359</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03489298688430154</v>
+        <v>0.1051029419285925</v>
       </c>
       <c r="E13">
-        <v>0.7005084529619836</v>
+        <v>2.505832656508545</v>
       </c>
       <c r="F13">
-        <v>0.3982164170253881</v>
+        <v>0.4508470147350252</v>
       </c>
       <c r="G13">
-        <v>0.241589186910673</v>
+        <v>0.3056347348097006</v>
       </c>
       <c r="H13">
-        <v>0.3927549855421546</v>
+        <v>0.1852169176398206</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.566473682761739</v>
+        <v>4.859950573611229</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.184355020259375</v>
+        <v>0.9888602478864357</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1899934681305382</v>
+        <v>0.4393849981615574</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03432253989650746</v>
+        <v>0.1033503707520538</v>
       </c>
       <c r="E14">
-        <v>0.6883331362822531</v>
+        <v>2.455643259827198</v>
       </c>
       <c r="F14">
-        <v>0.3974774263825793</v>
+        <v>0.4435524116347693</v>
       </c>
       <c r="G14">
-        <v>0.2411958763578781</v>
+        <v>0.3002003372215967</v>
       </c>
       <c r="H14">
-        <v>0.3933068792990611</v>
+        <v>0.183996779293139</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.540735028179881</v>
+        <v>4.778773200506407</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.184629114179387</v>
+        <v>0.9747086851818949</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1886385168023992</v>
+        <v>0.4345616042371887</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03397294298643772</v>
+        <v>0.1022771170440819</v>
       </c>
       <c r="E15">
-        <v>0.6808784920449824</v>
+        <v>2.425032002746789</v>
       </c>
       <c r="F15">
-        <v>0.3970324441610202</v>
+        <v>0.4391207738614682</v>
       </c>
       <c r="G15">
-        <v>0.2409612467023123</v>
+        <v>0.296907228747969</v>
       </c>
       <c r="H15">
-        <v>0.3936504482994252</v>
+        <v>0.1832680991262805</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.524961856987034</v>
+        <v>4.729080763066634</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.184821701565227</v>
+        <v>0.9661549290809717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808935519251946</v>
+        <v>0.4070205025829097</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03196679917454048</v>
+        <v>0.09613000464467092</v>
       </c>
       <c r="E16">
-        <v>0.6382049902682212</v>
+        <v>2.251501176596776</v>
       </c>
       <c r="F16">
-        <v>0.3945997641036527</v>
+        <v>0.4142626775241567</v>
       </c>
       <c r="G16">
-        <v>0.2397126757198436</v>
+        <v>0.2785593322423523</v>
       </c>
       <c r="H16">
-        <v>0.3957037884846102</v>
+        <v>0.1793690392745333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.434458722720763</v>
+        <v>4.444750495836388</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.186302988507236</v>
+        <v>0.9188237483477906</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761599990511229</v>
+        <v>0.3902093191421301</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03073368789259945</v>
+        <v>0.09236133226500698</v>
       </c>
       <c r="E17">
-        <v>0.6120658707757229</v>
+        <v>2.146606368272373</v>
       </c>
       <c r="F17">
-        <v>0.3932118303472762</v>
+        <v>0.3994699459526032</v>
       </c>
       <c r="G17">
-        <v>0.2390320226465406</v>
+        <v>0.2677472300359369</v>
       </c>
       <c r="H17">
-        <v>0.3970387328906853</v>
+        <v>0.1772137612476001</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.378838390673252</v>
+        <v>4.270672317392041</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.187547722684116</v>
+        <v>0.8912216659531964</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1734439573151576</v>
+        <v>0.3805691782308429</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03002356726354094</v>
+        <v>0.09019436190990149</v>
       </c>
       <c r="E18">
-        <v>0.5970453739821835</v>
+        <v>2.086799676912449</v>
       </c>
       <c r="F18">
-        <v>0.3924518037552147</v>
+        <v>0.3911206550426058</v>
       </c>
       <c r="G18">
-        <v>0.2386717374743057</v>
+        <v>0.2616824900577299</v>
       </c>
       <c r="H18">
-        <v>0.3978341852248874</v>
+        <v>0.1760571555470136</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.346811107432359</v>
+        <v>4.170659966420487</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.188386760391381</v>
+        <v>0.8758454358886638</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725254864420265</v>
+        <v>0.3773100416537289</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02978298521406231</v>
+        <v>0.0894607593498975</v>
       </c>
       <c r="E19">
-        <v>0.5919620497830209</v>
+        <v>2.066636196484481</v>
       </c>
       <c r="F19">
-        <v>0.3922010359199462</v>
+        <v>0.3883202449358336</v>
       </c>
       <c r="G19">
-        <v>0.2385550978377466</v>
+        <v>0.2596547165092815</v>
       </c>
       <c r="H19">
-        <v>0.3981082530021709</v>
+        <v>0.1756794536465449</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.335961109833988</v>
+        <v>4.136815460396463</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.188691950193032</v>
+        <v>0.8707226440579632</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1766632148547131</v>
+        <v>0.3919958355476183</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03086504487392006</v>
+        <v>0.09276243999565992</v>
       </c>
       <c r="E20">
-        <v>0.614846959838232</v>
+        <v>2.15771712151539</v>
       </c>
       <c r="F20">
-        <v>0.3933556144760004</v>
+        <v>0.401027997628276</v>
       </c>
       <c r="G20">
-        <v>0.2391012461925328</v>
+        <v>0.2688820511598777</v>
       </c>
       <c r="H20">
-        <v>0.3968937655216038</v>
+        <v>0.1774345123512404</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.384763004481158</v>
+        <v>4.289191220456473</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.187402469600983</v>
+        <v>0.894107632519848</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906435508353752</v>
+        <v>0.4416997797510902</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03449013195525197</v>
+        <v>0.1038650907183722</v>
       </c>
       <c r="E21">
-        <v>0.691908675127479</v>
+        <v>2.47035746289788</v>
       </c>
       <c r="F21">
-        <v>0.3976928866660785</v>
+        <v>0.4456873497601634</v>
       </c>
       <c r="G21">
-        <v>0.2413100907537427</v>
+        <v>0.3017890743745681</v>
       </c>
       <c r="H21">
-        <v>0.3931436245268998</v>
+        <v>0.1843512447260025</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.548296661999984</v>
+        <v>4.80261039726679</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.184543457196781</v>
+        <v>0.9788413179226154</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1998378450672789</v>
+        <v>0.4744836354599897</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03685125081102569</v>
+        <v>0.1111317955513584</v>
       </c>
       <c r="E22">
-        <v>0.7424097161701013</v>
+        <v>2.680427128758978</v>
       </c>
       <c r="F22">
-        <v>0.4008705960085024</v>
+        <v>0.4764850992033587</v>
       </c>
       <c r="G22">
-        <v>0.2430345953459323</v>
+        <v>0.324865244120133</v>
       </c>
       <c r="H22">
-        <v>0.3909395617893665</v>
+        <v>0.1896974928377801</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.65484135671386</v>
+        <v>5.139506476633073</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.18377927128904</v>
+        <v>1.039269044015015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1949254886011857</v>
+        <v>0.4569568841210128</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03559183432398072</v>
+        <v>0.1072522278685142</v>
       </c>
       <c r="E23">
-        <v>0.7154432731406075</v>
+        <v>2.567728468851712</v>
       </c>
       <c r="F23">
-        <v>0.3991430968496346</v>
+        <v>0.4598905138260676</v>
       </c>
       <c r="G23">
-        <v>0.2420883480643568</v>
+        <v>0.3123953283379421</v>
       </c>
       <c r="H23">
-        <v>0.3920932815773028</v>
+        <v>0.1867641251027692</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.598007681469653</v>
+        <v>4.959557813734591</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.184085689269722</v>
+        <v>1.006524898895094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1764356943413503</v>
+        <v>0.3911880745587268</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03080566208124225</v>
+        <v>0.09258110020576282</v>
       </c>
       <c r="E24">
-        <v>0.6135896071114644</v>
+        <v>2.152692407726178</v>
       </c>
       <c r="F24">
-        <v>0.3932904915911024</v>
+        <v>0.4003231209806586</v>
       </c>
       <c r="G24">
-        <v>0.2390698535982239</v>
+        <v>0.2683685294359606</v>
       </c>
       <c r="H24">
-        <v>0.3969592181348744</v>
+        <v>0.1773344547559219</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.382084643462463</v>
+        <v>4.280818617749787</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.187467754143768</v>
+        <v>0.892801359195289</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567433744421862</v>
+        <v>0.3213424954229538</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0256100274784572</v>
+        <v>0.07677938460237499</v>
       </c>
       <c r="E25">
-        <v>0.5042531803391768</v>
+        <v>1.724658522102786</v>
       </c>
       <c r="F25">
-        <v>0.3884395160511573</v>
+        <v>0.3420603106028395</v>
       </c>
       <c r="G25">
-        <v>0.2370052668188265</v>
+        <v>0.2266765037566429</v>
       </c>
       <c r="H25">
-        <v>0.4032636759672812</v>
+        <v>0.1702974968215685</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.147810306434053</v>
+        <v>3.552841493399455</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.195817278744627</v>
+        <v>0.788955300990537</v>
       </c>
     </row>
   </sheetData>
